--- a/metrics/R2/Infarto de Miocardio.xlsx
+++ b/metrics/R2/Infarto de Miocardio.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980118715612136</v>
+        <v>0.9980694138100193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9978834831032323</v>
+        <v>0.9978908348765567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9980576094971996</v>
+        <v>0.9979480045405781</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9980898024775372</v>
+        <v>0.998089854380492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9980895181221947</v>
+        <v>0.9980989699164349</v>
       </c>
       <c r="D4" t="n">
         <v>0.9981183460132349</v>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9874659472999375</v>
+        <v>0.9873979036484962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9890028163057845</v>
+        <v>0.9890721923291562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9883290891105534</v>
+        <v>0.988801444691627</v>
       </c>
     </row>
   </sheetData>
